--- a/data/trans_bre/P31_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_4_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,69</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,48</t>
+          <t>14,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>30,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18,67%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47,19%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 26,45</t>
+          <t>-11,07; 11,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 20,48</t>
+          <t>-4,6; 25,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,76; 34,42</t>
+          <t>-1,11; 33,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 38,28</t>
+          <t>12,36; 50,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 26,97</t>
+          <t>-11,44; 13,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 59,71</t>
+          <t>-4,88; 36,34</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 55,6</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15,96; 108,14</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,87</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-4,04%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 14,86</t>
+          <t>0,0; 13,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 15,49</t>
+          <t>0,92; 20,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 19,27</t>
+          <t>1,55; 16,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 17,72</t>
+          <t>-23,12; 6,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 18,65</t>
+          <t>0,0; 15,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 23,86</t>
+          <t>0,96; 26,9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 20,02</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-23,7; 6,74</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>11,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>9,61%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 14,27</t>
+          <t>-3,0; 14,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 15,61</t>
+          <t>3,04; 17,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 17,33</t>
+          <t>3,67; 23,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 17,49</t>
+          <t>0,46; 21,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,68; 18,5</t>
+          <t>-3,09; 17,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 21,46</t>
+          <t>3,14; 21,35</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 31,57</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 28,13</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>4,57%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 11,01</t>
+          <t>1,12; 15,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 6,82</t>
+          <t>-1,56; 12,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 8,25</t>
+          <t>-0,81; 13,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 12,66</t>
+          <t>-1,18; 11,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 7,58</t>
+          <t>1,23; 18,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 9,19</t>
+          <t>-1,56; 15,05</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 15,69</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 12,7</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,22</t>
+          <t>12,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>13,79%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 8,41</t>
+          <t>-1,07; 13,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 26,09</t>
+          <t>2,89; 35,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,42</t>
+          <t>0,0; 9,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 9,28</t>
+          <t>-0,82; 24,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 35,23</t>
+          <t>-1,08; 15,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,02</t>
+          <t>2,97; 55,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,01</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 33,93</t>
         </is>
       </c>
     </row>
@@ -1009,27 +1125,37 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>-2,72%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1047,12 +1173,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 5,13</t>
+          <t>-11,45; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 5,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1062,12 +1188,22 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 5,68</t>
+          <t>-11,45; 0,0</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,59</t>
+          <t>0,12; 6,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,08</t>
+          <t>3,55; 11,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,98</t>
+          <t>3,58; 12,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 9,67</t>
+          <t>2,42; 12,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,17</t>
+          <t>0,13; 7,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,48; 15,29</t>
+          <t>3,77; 13,61</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 14,29</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 14,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P31_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_4_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,63</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>14,31</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>30,63</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,02%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,78%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>18,67%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>47,19%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.03773794573109779</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.921538352175363</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>13.7426964321028</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>28.3447008494614</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.0004070940090863594</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1160981933763941</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1789772635055872</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4197567340108593</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,07; 11,51</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 25,58</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 33,72</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>12,36; 50,47</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-11,44; 13,55</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; 36,34</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 55,6</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>15,96; 108,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.583573183144264</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.819978652415289</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.643223334678641</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>10.49869621391302</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.09670983703741247</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.01820590770713406</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.01353316207868088</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1286882619323946</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.84210244286571</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>31.28626573438963</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>33.51857781852021</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>46.84393101309611</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1660150391945607</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.4693401285813733</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5691034220798418</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.9506180660847532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,93</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,57</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,88</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,87</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,09%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>9,54%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,39%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-4,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,64</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 20,7</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 16,7</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-23,12; 6,19</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,79</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 26,9</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 20,02</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-23,7; 6,74</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>10.6603365708956</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.600754483120753</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.809178581911413</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-3.33951287328782</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1193236706040999</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.0842779515345416</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.07306705186515003</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.03509307609587892</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,77</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,96</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>9,02</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,54%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>9,61%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>14,09%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10,34%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3979438876232505</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.625078049576195</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-22.54493190421809</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.003899463687460716</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.01649283644913543</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2339265081699675</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 14,58</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,04; 17,6</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,67; 23,18</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 21,2</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 17,64</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3,14; 21,35</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>4,0; 31,57</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 28,13</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>37.68147547891965</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.92802304525537</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.45923654155144</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.177098788751449</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.5953571483448308</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2416153083775348</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1969871934263512</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.07964786437915566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,69</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,27</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,01</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,33%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,57%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,45%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,71%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.101412481430778</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.931985604049064</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>14.34239098751689</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>8.417070502741641</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.05646848141571066</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.09808038160592857</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1739597618858326</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.09558594659202618</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 15,16</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 12,9</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 13,14</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,18; 11,21</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 18,2</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 15,05</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 15,69</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 12,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.544088734065588</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.342067459656892</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>4.881494069930905</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2584735439151917</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.02578066612827083</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.03456973584812145</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.05388350606458914</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.003189688095429598</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.64071178574022</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>18.46883626875182</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>27.68519805255565</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.49705135323719</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.1760767109837443</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2264706040012943</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3933150071787639</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2561731135065224</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,04</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>12,12</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,59</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,41%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>13,79%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,65%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 13,36</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 35,91</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,1</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 24,79</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 15,56</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 55,93</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,01</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 33,93</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.331253586412609</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.728747008857868</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.756901411690605</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.645043112076718</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.04717360791287287</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.0291309121094144</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.04062795111286537</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.03866255894141195</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,72</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-2,72%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.675272062869275</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.556775316203632</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.565944458228886</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.650547545547012</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.04688148665277597</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.05711131396982209</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.02665800081955191</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.01662602323533366</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-11,45; 0,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-11,45; 0,0</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.32250544172045</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.955182109372133</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.49803147226026</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.80102239379978</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1317476738811606</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1121917438615289</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1317812039832297</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1364284579637856</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,273 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6,92</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>7,02</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6,96</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>7,59%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>7,77%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>7,73%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>4.950323820061753</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>12.31867732422355</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.453618879576014</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>7.778828366345447</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.05308183957831128</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.1404937442581122</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.02515335629465276</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.08569676829832917</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 6,88</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 11,72</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 12,2</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 12,09</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 7,56</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>3,77; 13,61</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>3,84; 14,29</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 14,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.002397558490096</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>2.768635561319016</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.6348807205379255</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.01018357314485657</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.02840389659956716</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.006274090530085153</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>13.06941650970141</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>36.85413547513935</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>8.812659321938536</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>26.35396274166848</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.1534586148204715</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.5831951346713413</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.09664060901082308</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.3647579087971404</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-3.690901629354149</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.03690901629354149</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr"/>
+      <c r="D20" s="5" t="n">
+        <v>-15.75807037128236</v>
+      </c>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
+        <v>-0.1575807037128236</v>
+      </c>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr"/>
+      <c r="D21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>4.413834826368745</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>6.737658318876571</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>7.157957235677747</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>6.904305230002727</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.04777995171403599</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.07404420202565702</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.0796622665618282</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.07668065193009377</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.4027196617338091</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>2.939864757625088</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>3.492389292656749</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>2.348455140389021</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.004234624533643968</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.03139678963684461</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.03728870012950119</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.02512871968196188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.928219446060863</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>11.91250778781971</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>13.03685169964197</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>12.07085087286125</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.1134526122239586</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.1380214635754046</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.1555685287639083</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.141025434234048</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1301,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
